--- a/biology/Botanique/Bubble_and_squeak_(plat)/Bubble_and_squeak_(plat).xlsx
+++ b/biology/Botanique/Bubble_and_squeak_(plat)/Bubble_and_squeak_(plat).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le bubble and squeak (parfois juste appelé bubble) est un mets traditionnel anglais, fait avec des restes de légumes frits d'un plat de rôti du dimanche. Les ingrédients principaux sont la pomme de terre et le chou, mais des carottes, des pois, des choux de Bruxelles et d'autres légumes peuvent être ajoutés.
@@ -515,7 +527,9 @@
           <t>Plats similaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Biksemad du Danemark,
 Colcannon d'Irlande,
